--- a/biology/Botanique/Parc_national_de_la_Podolie_septentrionale/Parc_national_de_la_Podolie_septentrionale.xlsx
+++ b/biology/Botanique/Parc_national_de_la_Podolie_septentrionale/Parc_national_de_la_Podolie_septentrionale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de la Podolie septentrionale (en ukrainien : Національний природний парк «Північне Поділля») est un parc régional situé dans l'oblast de Lviv, en Ukraine.
 </t>
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 10 février 2010, le décret présidentiel consacre la réserve naturelle. Elle recouvre une superficie de 155 kilomètres carrés du plateau de Podolie, divers zones de forêts, de marécages en rive gauche du Dniepr.
-			Le parc du château Olekso, classé[2],
-			foret de Verkhobouj, classé[3]
-			réserve Verkhobouj, classé[4]
-			Makitra, classé[5]
-			réserve Trinih, classé[6].
+			Le parc du château Olekso, classé,
+			foret de Verkhobouj, classé
+			réserve Verkhobouj, classé
+			Makitra, classé
+			réserve Trinih, classé.
 </t>
         </is>
       </c>
